--- a/biology/Zoologie/Grallaire_tachetée/Grallaire_tachetée.xlsx
+++ b/biology/Zoologie/Grallaire_tachetée/Grallaire_tachetée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_tachet%C3%A9e</t>
+          <t>Grallaire_tachetée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylopezus macularius
 La Grallaire tachetée (Hylopezus macularius) est une espèce d'oiseaux de la famille des Grallariidae vivant en Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_tachet%C3%A9e</t>
+          <t>Grallaire_tachetée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte mesure environ 14 cm pour un poids de 43 g[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte mesure environ 14 cm pour un poids de 43 g. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grallaire_tachet%C3%A9e</t>
+          <t>Grallaire_tachetée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Venezuela, en Guyana, au Suriname, en Guyane, au Brésil, en Colombie, en Équateur, au Pérou et en Bolivie[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Venezuela, en Guyana, au Suriname, en Guyane, au Brésil, en Colombie, en Équateur, au Pérou et en Bolivie
 Son habitat naturel est subtropical ou des forêts tropicales humides[réf. nécessaire].
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grallaire_tachet%C3%A9e</t>
+          <t>Grallaire_tachetée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021) :
 sous-espèce Hylopezus macularius dilutus (Hellmayr, 1910) - Sud-Est de la Colombie, Sud du Venezuela, Nord-Est du Pérou
 sous-espèce Hylopezus macularius macularius (Temminck, 1830) - Est du Venezuela, Guyana, Guyane, Nord-Est du Brésil</t>
         </is>
